--- a/experiment/quadratic/ex9_2_5/compare/M-Estacionario/ex9_2_5_M-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_5/compare/M-Estacionario/ex9_2_5_M-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>-123.29533064187606</v>
       </c>
       <c r="E2">
-        <v>0.02663127</v>
+        <v>0.024668625</v>
       </c>
       <c r="F2">
-        <v>0.03949875</v>
+        <v>0.036351992</v>
       </c>
       <c r="G2">
-        <v>0.031052446211180123</v>
+        <v>0.028344932163841808</v>
       </c>
       <c r="H2">
         <v>2307</v>
@@ -514,13 +514,13 @@
         <v>-123.29533161092479</v>
       </c>
       <c r="E3">
-        <v>0.00456102</v>
+        <v>0.004160656</v>
       </c>
       <c r="F3">
-        <v>0.0100233</v>
+        <v>0.018386741</v>
       </c>
       <c r="G3">
-        <v>0.00537720817887931</v>
+        <v>0.0050364884899193555</v>
       </c>
       <c r="H3">
         <v>4516</v>
